--- a/1 четверть_4_Знакомство с языком программирования С#.xlsx
+++ b/1 четверть_4_Знакомство с языком программирования С#.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Homework-repo\GB_Developer_Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Homework_hard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04849D4D-8BB7-489F-A865-17C9A1B88294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F5D422-C426-4C23-A424-5B05C61F5C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1-8" sheetId="2" r:id="rId1"/>
-    <sheet name="gitignore" sheetId="3" r:id="rId2"/>
+    <sheet name="1-8 Бут1" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId2"/>
+    <sheet name="gitignore" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="453">
   <si>
     <t>Урок 1</t>
   </si>
@@ -853,55 +854,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>присваиваемый новый тип переменной</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;.Parse(&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>переменная</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;)</t>
-    </r>
-  </si>
-  <si>
     <t>int.Parse(numString)</t>
   </si>
   <si>
@@ -959,31 +911,6 @@
 1…31 - завершение процесса с той или иной опцией
 15 - завершение процесса по аналогии со стандартным закрытием окна
 9 - завершение процесса по аналогии с завершением процесса через диспетчер задач без сохранения результатов и тп</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Преобразование типа переменной</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Преобразует тип любой переменной в любой другой обозначенный тип</t>
-    </r>
   </si>
   <si>
     <t>Завершение работы алгоритма по сигналу</t>
@@ -5289,6 +5216,24 @@
     </r>
   </si>
   <si>
+    <t>1&gt;3</t>
+  </si>
+  <si>
+    <t>1&gt;2</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>2&gt;3</t>
+  </si>
+  <si>
     <t>void Towers(string with = "1", string on = "3", string some = "2", int count = 3)
 {
     if (count &gt; 1) Towers(with, some, on, count - 1);
@@ -6420,17 +6365,171 @@
 T[] - передаваемый массив
 Int32 - новое количества элементов массива/новый размер массива</t>
   </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>присваиваемый новый тип переменной</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;.Parse(&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>переменная</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;)
+Convert.ToInt32()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Преобразование типа переменной</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Преобразует тип любой переменной в любой другой обозначенный
+Преобразует тип любой переменной в целое число</t>
+    </r>
+  </si>
+  <si>
+    <t>Урок 2 (Буткем)</t>
+  </si>
+  <si>
+    <t>string.Join(&lt;разделитель&gt;, &lt;массив элементов&gt;)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Строки. Массивы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Преобразует массив в строку, разделяя элементы по &lt;разделителю&gt;
+int[] array = new int[5];
+for  (int i = 0; i &lt; 5; i++)
+{
+ array[i] = Convert.ToInt32(Console.ReadLine());
+}
+Console.WriteLine(string.Join(" ", array);</t>
+    </r>
+  </si>
+  <si>
+    <t>Дополнительно
+Быстрое создание нового массива из случайных элементов</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Массив. Быстрое создание массива</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Random rand = new Random();
+int[] resSerial = new int[N].Select(r =&gt; rand.Next(0, 5)).ToArray();</t>
+    </r>
+  </si>
+  <si>
+    <t>Урок 9 (Буткем)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6834,9 +6933,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6853,10 +6952,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -6886,10 +6985,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6919,7 +7018,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6937,13 +7036,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6952,7 +7051,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6961,13 +7060,13 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6985,28 +7084,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7018,10 +7117,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -7030,19 +7129,22 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7057,49 +7159,59 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -8253,7 +8365,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9856108" y="158688767"/>
+          <a:off x="9860438" y="158606506"/>
           <a:ext cx="2311519" cy="196860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8473,7 +8585,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4898571" y="155683858"/>
+          <a:off x="4904344" y="156057436"/>
           <a:ext cx="1397585" cy="798620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8530,15 +8642,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>181428</xdr:colOff>
+      <xdr:colOff>181429</xdr:colOff>
       <xdr:row>191</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3320143</xdr:colOff>
+      <xdr:colOff>3879273</xdr:colOff>
       <xdr:row>191</xdr:row>
-      <xdr:rowOff>825655</xdr:rowOff>
+      <xdr:rowOff>963041</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8561,8 +8673,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4054928" y="164664571"/>
-          <a:ext cx="3138715" cy="771227"/>
+          <a:off x="4060702" y="165027428"/>
+          <a:ext cx="3697844" cy="908613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>301492</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>160262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2517756</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>532930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Рисунок 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2646B7C-6BBF-403F-8912-1CAA9AC491C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4173747" y="169842223"/>
+          <a:ext cx="2216264" cy="372668"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8840,10 +8996,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X842"/>
+  <dimension ref="A1:X843"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="51" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8956,7 +9112,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -9010,7 +9166,7 @@
         <v>44</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" s="28" t="s">
         <v>76</v>
@@ -9040,22 +9196,22 @@
         <v>65</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H8" s="42" t="s">
         <v>84</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P8" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q8" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="Q8" s="13" t="s">
-        <v>141</v>
-      </c>
       <c r="R8" s="35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="S8" s="16" t="s">
         <v>71</v>
@@ -9076,7 +9232,7 @@
         <v>78</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>77</v>
@@ -9089,7 +9245,7 @@
       </c>
       <c r="Q9" s="20"/>
       <c r="R9" s="36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S9" s="37">
         <v>4.0879629629629634E-2</v>
@@ -9112,10 +9268,10 @@
         <v>80</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="75" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I10" s="21" t="s">
         <v>81</v>
@@ -9146,7 +9302,7 @@
         <v>74</v>
       </c>
       <c r="Q11" s="54" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="24"/>
@@ -9161,21 +9317,21 @@
         <v>4</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I12" s="24"/>
       <c r="P12" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R12" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S12" s="46" t="s">
         <v>75</v>
@@ -9198,10 +9354,10 @@
         <v>62</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H13" s="65" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I13" s="56">
         <v>3.0914351851851849E-2</v>
@@ -9219,11 +9375,11 @@
         <v>38</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="68" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I14" s="46"/>
     </row>
@@ -9268,7 +9424,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>40</v>
@@ -9276,23 +9432,23 @@
     </row>
     <row r="18" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="55" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:24" ht="406" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="87" t="s">
-        <v>100</v>
+      <c r="C19" s="88" t="s">
+        <v>98</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>54</v>
@@ -9302,15 +9458,15 @@
       <c r="A20" s="49"/>
       <c r="B20" s="13"/>
       <c r="C20" s="42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:24" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A21" s="49"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="80" t="s">
-        <v>402</v>
+      <c r="C21" s="81" t="s">
+        <v>406</v>
       </c>
       <c r="D21" s="14"/>
     </row>
@@ -9318,7 +9474,7 @@
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="65" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D22" s="16"/>
     </row>
@@ -9333,7 +9489,7 @@
       <c r="D23" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="88"/>
+      <c r="H23" s="89"/>
     </row>
     <row r="24" spans="1:24" ht="145" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
@@ -9405,7 +9561,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="6"/>
@@ -9427,7 +9583,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -9436,21 +9592,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:24" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F32" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H32" s="44" t="s">
-        <v>94</v>
+      <c r="H32" s="90" t="s">
+        <v>446</v>
       </c>
       <c r="I32" s="45">
         <v>2.4826388888888887E-2</v>
@@ -9464,7 +9620,7 @@
       <c r="H33" s="44"/>
       <c r="I33" s="45"/>
       <c r="P33" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q33" s="10"/>
       <c r="R33" s="10" t="s">
@@ -9474,31 +9630,31 @@
     </row>
     <row r="34" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="F34" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="74" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I34" s="56">
         <v>2.4826388888888887E-2</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q34" s="13"/>
       <c r="R34" s="35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S34" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F35" s="23"/>
       <c r="G35" s="20"/>
       <c r="H35" s="76" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I35" s="37"/>
       <c r="P35" s="12"/>
@@ -9508,13 +9664,13 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="F36" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="16"/>
       <c r="P36" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
@@ -9522,29 +9678,29 @@
     </row>
     <row r="37" spans="1:24" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F37" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="H37" s="35" t="s">
         <v>93</v>
-      </c>
-      <c r="H37" s="35" t="s">
-        <v>95</v>
       </c>
       <c r="I37" s="16"/>
       <c r="P37" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q37" s="57" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R37" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="S37" s="37"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="F38" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -9552,25 +9708,25 @@
     </row>
     <row r="39" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="F39" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H39" s="42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="F40" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="G40" s="13" t="s">
-        <v>108</v>
-      </c>
       <c r="H40" s="65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I40" s="56">
         <v>9.3055555555555558E-2</v>
@@ -9578,25 +9734,25 @@
     </row>
     <row r="41" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="F41" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H41" s="65" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:24" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F42" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H42" s="68" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I42" s="46"/>
     </row>
@@ -9624,7 +9780,7 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="6"/>
@@ -9646,10 +9802,10 @@
         <v>2</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K46" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P46" s="32" t="s">
         <v>68</v>
@@ -9665,37 +9821,37 @@
     </row>
     <row r="48" spans="1:24" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I48" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="K48" s="27" t="s">
         <v>116</v>
-      </c>
-      <c r="K48" s="27" t="s">
-        <v>118</v>
       </c>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
       <c r="N48" s="29"/>
       <c r="P48" s="51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q48" s="51"/>
       <c r="R48" s="52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S48" s="43">
         <v>2.2141203703703705E-2</v>
@@ -9703,28 +9859,28 @@
     </row>
     <row r="49" spans="1:24" ht="145" x14ac:dyDescent="0.35">
       <c r="F49" s="27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H49" s="61" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I49" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M49" s="81" t="s">
+        <v>407</v>
+      </c>
+      <c r="N49" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="M49" s="80" t="s">
-        <v>403</v>
-      </c>
-      <c r="N49" s="29" t="s">
-        <v>119</v>
       </c>
       <c r="P49" s="51"/>
       <c r="Q49" s="51"/>
@@ -9733,29 +9889,29 @@
     <row r="50" spans="1:24" ht="101.5" x14ac:dyDescent="0.35">
       <c r="F50" s="13"/>
       <c r="G50" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H50" s="70" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I50" s="29"/>
       <c r="K50" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M50" s="50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N50" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="145" x14ac:dyDescent="0.35">
       <c r="F51" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="70" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I51" s="29"/>
       <c r="M51" s="50"/>
@@ -9763,42 +9919,42 @@
     </row>
     <row r="52" spans="1:24" ht="192" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F52" s="60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H52" s="58" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I52" s="59" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K52" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="L52" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="M52" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="N52" s="29" t="s">
         <v>130</v>
-      </c>
-      <c r="L52" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="M52" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="N52" s="29" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="409.5" x14ac:dyDescent="0.35">
       <c r="F53" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="H53" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="I53" s="59" t="s">
         <v>202</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="H53" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="I53" s="59" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.35">
@@ -9825,7 +9981,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="6"/>
@@ -9850,7 +10006,7 @@
         <v>70</v>
       </c>
       <c r="K56" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P56" s="32" t="s">
         <v>68</v>
@@ -9858,10 +10014,10 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P57" s="22" t="s">
         <v>74</v>
@@ -9872,47 +10028,47 @@
     </row>
     <row r="58" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P58" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q58" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="P58" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q58" s="17" t="s">
-        <v>153</v>
-      </c>
       <c r="R58" s="35" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="S58" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
       <c r="P59" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q59" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="R59" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="Q59" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="R59" s="62" t="s">
-        <v>356</v>
-      </c>
       <c r="S59" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P60" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q60" s="57" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="R60" s="36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="S60" s="37">
         <v>8.9583333333333334E-2</v>
@@ -9942,7 +10098,7 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="6"/>
@@ -9964,10 +10120,10 @@
         <v>2</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K64" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P64" s="32" t="s">
         <v>68</v>
@@ -9975,35 +10131,35 @@
     </row>
     <row r="65" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A65" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F65" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H65" s="61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I65" s="29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K65" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L65" s="13"/>
       <c r="M65" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N65" s="13"/>
       <c r="P65" s="13"/>
@@ -10021,28 +10177,28 @@
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="F66" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G66" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="H66" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="I66" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="K66" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="H66" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="I66" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="K66" s="13" t="s">
-        <v>185</v>
-      </c>
       <c r="L66" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M66" s="61" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N66" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P66" s="13"/>
       <c r="Q66" s="13"/>
@@ -10059,21 +10215,21 @@
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="F67" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H67" s="61" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I67" s="13"/>
       <c r="K67" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L67" s="13"/>
       <c r="M67" s="62" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N67" s="13"/>
       <c r="P67" s="13"/>
@@ -10091,26 +10247,26 @@
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="F68" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H68" s="61" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I68" s="13"/>
       <c r="K68" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="L68" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="L68" s="13" t="s">
-        <v>194</v>
-      </c>
       <c r="M68" s="62" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N68" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P68" s="13"/>
       <c r="Q68" s="13"/>
@@ -10127,11 +10283,11 @@
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="F69" s="61" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G69" s="13"/>
       <c r="H69" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I69" s="13"/>
       <c r="K69" s="13"/>
@@ -10193,7 +10349,7 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="6"/>
@@ -10215,10 +10371,10 @@
         <v>1</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K73" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P73" s="32" t="s">
         <v>68</v>
@@ -10226,11 +10382,11 @@
     </row>
     <row r="74" spans="1:24" ht="232" x14ac:dyDescent="0.35">
       <c r="A74" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D74" s="13"/>
       <c r="F74" s="13"/>
@@ -10252,7 +10408,7 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -10276,7 +10432,7 @@
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -10344,7 +10500,7 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="6"/>
@@ -10366,10 +10522,10 @@
         <v>2</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K80" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P80" s="32" t="s">
         <v>68</v>
@@ -10377,7 +10533,7 @@
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A81" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -10401,13 +10557,13 @@
     </row>
     <row r="82" spans="1:24" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A82" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C82" s="65" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D82" s="64">
         <v>1.7013888888888892E-3</v>
@@ -10431,11 +10587,11 @@
     </row>
     <row r="83" spans="1:24" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A83" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="65" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D83" s="64">
         <v>7.2569444444444443E-3</v>
@@ -10459,7 +10615,7 @@
     </row>
     <row r="84" spans="1:24" ht="174" x14ac:dyDescent="0.35">
       <c r="C84" s="67" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D84" s="64">
         <v>1.6354166666666666E-2</v>
@@ -10483,11 +10639,11 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A85" s="66" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D85" s="13"/>
       <c r="F85" s="13"/>
@@ -10511,7 +10667,7 @@
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D86" s="13"/>
       <c r="F86" s="13"/>
@@ -10535,7 +10691,7 @@
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D87" s="64">
         <v>2.327546296296296E-2</v>
@@ -10603,7 +10759,7 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="6"/>
@@ -10625,7 +10781,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -10636,11 +10792,11 @@
     </row>
     <row r="92" spans="1:24" ht="203" x14ac:dyDescent="0.35">
       <c r="A92" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="65" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D92" s="64">
         <v>2.568287037037037E-2</v>
@@ -10652,7 +10808,7 @@
         <v>63</v>
       </c>
       <c r="H92" s="65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I92" s="13"/>
       <c r="P92" s="13"/>
@@ -10666,21 +10822,21 @@
     </row>
     <row r="93" spans="1:24" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B93" s="13"/>
       <c r="C93" s="65" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D93" s="64">
         <v>2.8356481481481483E-2</v>
       </c>
       <c r="F93" s="69" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G93" s="13"/>
       <c r="H93" s="62" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I93" s="64">
         <v>5.0694444444444452E-2</v>
@@ -10696,21 +10852,21 @@
     </row>
     <row r="94" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="69" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C94" s="62" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D94" s="13"/>
       <c r="F94" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G94" s="10"/>
       <c r="H94" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I94" s="24"/>
       <c r="P94" s="13"/>
@@ -10724,23 +10880,23 @@
     </row>
     <row r="95" spans="1:24" ht="145" x14ac:dyDescent="0.35">
       <c r="A95" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C95" s="62" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D95" s="64">
         <v>4.2118055555555554E-2</v>
       </c>
       <c r="F95" s="12"/>
       <c r="G95" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H95" s="74" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I95" s="16"/>
       <c r="P95" s="13"/>
@@ -10758,13 +10914,13 @@
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="F96" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="G96" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="G96" s="20" t="s">
-        <v>251</v>
-      </c>
       <c r="H96" s="76" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I96" s="46"/>
       <c r="P96" s="13"/>
@@ -10822,7 +10978,7 @@
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="6"/>
@@ -10844,10 +11000,10 @@
         <v>2</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K100" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P100" s="32" t="s">
         <v>68</v>
@@ -10856,17 +11012,17 @@
     <row r="101" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="B101" s="13"/>
       <c r="C101" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D101" s="64">
         <v>6.0879629629629643E-3</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G101" s="13"/>
       <c r="H101" s="71" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I101" s="64">
         <v>2.2083333333333333E-2</v>
@@ -10888,7 +11044,7 @@
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D102" s="64">
         <v>6.3194444444444444E-3</v>
@@ -10914,7 +11070,7 @@
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D103" s="64">
         <v>7.3611111111111108E-3</v>
@@ -10940,7 +11096,7 @@
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D104" s="13"/>
       <c r="F104" s="13"/>
@@ -10964,7 +11120,7 @@
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D105" s="64">
         <v>8.9930555555555545E-3</v>
@@ -10990,7 +11146,7 @@
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D106" s="13"/>
       <c r="F106" s="13"/>
@@ -11014,7 +11170,7 @@
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D107" s="64">
         <v>1.0856481481481481E-2</v>
@@ -11040,7 +11196,7 @@
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D108" s="13"/>
       <c r="F108" s="13"/>
@@ -11062,13 +11218,13 @@
     </row>
     <row r="109" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A109" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D109" s="64">
         <v>1.3090277777777779E-2</v>
@@ -11092,11 +11248,11 @@
     </row>
     <row r="110" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A110" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B110" s="13"/>
       <c r="C110" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D110" s="64">
         <v>1.4236111111111111E-2</v>
@@ -11120,11 +11276,11 @@
     </row>
     <row r="111" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B111" s="13"/>
       <c r="C111" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D111" s="13"/>
       <c r="F111" s="13"/>
@@ -11146,7 +11302,7 @@
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A112" s="27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -11170,11 +11326,11 @@
     </row>
     <row r="113" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B113" s="13"/>
       <c r="C113" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D113" s="64">
         <v>1.9120370370370371E-2</v>
@@ -11198,11 +11354,11 @@
     </row>
     <row r="114" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B114" s="13"/>
       <c r="C114" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D114" s="13"/>
       <c r="F114" s="13"/>
@@ -11224,11 +11380,11 @@
     </row>
     <row r="115" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B115" s="69"/>
       <c r="C115" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D115" s="13"/>
       <c r="F115" s="13"/>
@@ -11250,11 +11406,11 @@
     </row>
     <row r="116" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A116" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D116" s="64">
         <v>2.0787037037037038E-2</v>
@@ -11278,11 +11434,11 @@
     </row>
     <row r="117" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A117" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B117" s="13"/>
       <c r="C117" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D117" s="64">
         <v>2.119212962962963E-2</v>
@@ -11308,7 +11464,7 @@
       <c r="A118" s="13"/>
       <c r="B118" s="13"/>
       <c r="C118" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D118" s="64">
         <v>2.4664351851851851E-2</v>
@@ -11332,11 +11488,11 @@
     </row>
     <row r="119" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A119" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B119" s="13"/>
       <c r="C119" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D119" s="13"/>
       <c r="F119" s="13"/>
@@ -11358,11 +11514,11 @@
     </row>
     <row r="120" spans="1:24" ht="174" x14ac:dyDescent="0.35">
       <c r="A120" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B120" s="13"/>
       <c r="C120" s="13" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D120" s="13"/>
       <c r="F120" s="13"/>
@@ -11428,7 +11584,7 @@
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="6"/>
@@ -11450,10 +11606,10 @@
         <v>1</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K124" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P124" s="32" t="s">
         <v>68</v>
@@ -11465,13 +11621,13 @@
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="F125" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H125" s="74" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I125" s="64">
         <v>2.7754629629629629E-2</v>
@@ -11557,7 +11713,7 @@
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="6"/>
@@ -11579,10 +11735,10 @@
         <v>2</v>
       </c>
       <c r="F130" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K130" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P130" s="32" t="s">
         <v>68</v>
@@ -11590,18 +11746,18 @@
     </row>
     <row r="131" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B131" s="13"/>
       <c r="C131" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D131" s="13"/>
       <c r="F131" s="40" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H131" s="13"/>
       <c r="I131" s="64">
@@ -11622,11 +11778,11 @@
     </row>
     <row r="132" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A132" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B132" s="13"/>
       <c r="C132" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D132" s="64">
         <v>6.6782407407407415E-3</v>
@@ -11650,11 +11806,11 @@
     </row>
     <row r="133" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A133" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B133" s="13"/>
       <c r="C133" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D133" s="13"/>
       <c r="F133" s="13"/>
@@ -11676,11 +11832,11 @@
     </row>
     <row r="134" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A134" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B134" s="13"/>
       <c r="C134" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D134" s="64">
         <v>8.5763888888888886E-3</v>
@@ -11704,11 +11860,11 @@
     </row>
     <row r="135" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A135" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B135" s="13"/>
       <c r="C135" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D135" s="13"/>
       <c r="F135" s="13"/>
@@ -11730,21 +11886,21 @@
     </row>
     <row r="136" spans="1:24" ht="232" x14ac:dyDescent="0.35">
       <c r="A136" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B136" s="13"/>
       <c r="C136" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D136" s="64">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G136" s="13"/>
       <c r="H136" s="72" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I136" s="64">
         <v>3.8194444444444441E-2</v>
@@ -11764,13 +11920,13 @@
     </row>
     <row r="137" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A137" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D137" s="64">
         <v>2.361111111111111E-2</v>
@@ -11794,13 +11950,13 @@
     </row>
     <row r="138" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A138" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D138" s="64">
         <v>2.5312500000000002E-2</v>
@@ -11824,13 +11980,13 @@
     </row>
     <row r="139" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D139" s="13"/>
       <c r="F139" s="13"/>
@@ -11852,11 +12008,11 @@
     </row>
     <row r="140" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B140" s="13"/>
       <c r="C140" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D140" s="13"/>
       <c r="F140" s="13"/>
@@ -11878,11 +12034,11 @@
     </row>
     <row r="141" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B141" s="13"/>
       <c r="C141" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D141" s="64">
         <v>4.1666666666666664E-2</v>
@@ -11906,11 +12062,11 @@
     </row>
     <row r="142" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A142" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B142" s="13"/>
       <c r="C142" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D142" s="13"/>
       <c r="F142" s="13"/>
@@ -11934,7 +12090,7 @@
       <c r="A143" s="13"/>
       <c r="B143" s="13"/>
       <c r="C143" s="40" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D143" s="13"/>
       <c r="F143" s="13"/>
@@ -12002,7 +12158,7 @@
       <c r="A146" s="13"/>
       <c r="B146" s="13"/>
       <c r="C146" s="40" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D146" s="13"/>
       <c r="F146" s="13"/>
@@ -12068,7 +12224,7 @@
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="6"/>
@@ -12090,10 +12246,10 @@
         <v>1</v>
       </c>
       <c r="F150" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K150" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P150" s="32" t="s">
         <v>68</v>
@@ -12119,7 +12275,7 @@
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A152" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -12143,7 +12299,7 @@
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A153" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -12169,13 +12325,13 @@
     </row>
     <row r="154" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A154" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C154" s="73" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D154" s="13"/>
       <c r="F154" s="13"/>
@@ -12198,7 +12354,7 @@
     <row r="155" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A155" s="13"/>
       <c r="B155" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
@@ -12221,13 +12377,13 @@
     </row>
     <row r="156" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A156" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="C156" s="73" t="s">
         <v>331</v>
-      </c>
-      <c r="B156" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="C156" s="73" t="s">
-        <v>333</v>
       </c>
       <c r="D156" s="13"/>
       <c r="F156" s="13"/>
@@ -12249,13 +12405,13 @@
     </row>
     <row r="157" spans="1:24" ht="174" x14ac:dyDescent="0.35">
       <c r="A157" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B157" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="B157" s="13" t="s">
-        <v>336</v>
-      </c>
       <c r="C157" s="73" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D157" s="13"/>
       <c r="F157" s="13"/>
@@ -12277,13 +12433,13 @@
     </row>
     <row r="158" spans="1:24" ht="145" x14ac:dyDescent="0.35">
       <c r="A158" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B158" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C158" s="73" t="s">
         <v>338</v>
-      </c>
-      <c r="C158" s="73" t="s">
-        <v>340</v>
       </c>
       <c r="D158" s="13"/>
       <c r="F158" s="13"/>
@@ -12306,7 +12462,7 @@
     <row r="159" spans="1:24" ht="174" x14ac:dyDescent="0.35">
       <c r="A159" s="13"/>
       <c r="B159" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
@@ -12373,7 +12529,7 @@
     </row>
     <row r="162" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="6"/>
@@ -12395,9 +12551,9 @@
         <v>2</v>
       </c>
       <c r="F163" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="K163" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="K163" s="80" t="s">
         <v>2</v>
       </c>
       <c r="P163" s="32" t="s">
@@ -12406,11 +12562,11 @@
     </row>
     <row r="164" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B164" s="13"/>
       <c r="C164" s="74" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D164" s="64">
         <v>1.3888888888888889E-3</v>
@@ -12418,17 +12574,17 @@
       <c r="F164" s="13"/>
       <c r="G164" s="13"/>
       <c r="H164" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I164" s="64">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="K164" s="13" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L164" s="13"/>
       <c r="M164" s="62" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="N164" s="13"/>
       <c r="P164" s="13"/>
@@ -12442,27 +12598,27 @@
     </row>
     <row r="165" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A165" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B165" s="13"/>
       <c r="C165" s="74" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D165" s="64">
         <v>3.3101851851851851E-3</v>
       </c>
       <c r="F165" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G165" s="13"/>
       <c r="H165" s="74" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I165" s="13"/>
       <c r="K165" s="13"/>
       <c r="L165" s="13"/>
       <c r="M165" s="13" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="N165" s="13"/>
       <c r="P165" s="13"/>
@@ -12476,29 +12632,29 @@
     </row>
     <row r="166" spans="1:24" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D166" s="64">
         <v>4.7453703703703703E-3</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G166" s="13"/>
       <c r="H166" s="74" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I166" s="13"/>
       <c r="K166" s="13"/>
       <c r="L166" s="13"/>
       <c r="M166" s="13" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="N166" s="13"/>
       <c r="P166" s="13"/>
@@ -12513,26 +12669,26 @@
     <row r="167" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A167" s="13"/>
       <c r="B167" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D167" s="13"/>
       <c r="F167" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G167" s="54" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H167" s="77" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I167" s="24"/>
       <c r="K167" s="13"/>
       <c r="L167" s="13"/>
       <c r="M167" s="13" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="N167" s="64">
         <v>2.2048611111111113E-2</v>
@@ -12548,29 +12704,29 @@
     </row>
     <row r="168" spans="1:24" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B168" s="13"/>
       <c r="C168" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D168" s="13"/>
       <c r="F168" s="23" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G168" s="20"/>
       <c r="H168" s="76" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I168" s="37">
         <v>1.5300925925925926E-2</v>
       </c>
       <c r="K168" s="13" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L168" s="13"/>
       <c r="M168" s="74" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="N168" s="64">
         <v>2.4525462962962968E-2</v>
@@ -12586,27 +12742,27 @@
     </row>
     <row r="169" spans="1:24" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A169" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B169" s="13"/>
       <c r="C169" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D169" s="13"/>
       <c r="F169" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G169" s="10"/>
       <c r="H169" s="77" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I169" s="24"/>
       <c r="K169" s="13" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L169" s="13"/>
       <c r="M169" s="13" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="N169" s="13"/>
       <c r="P169" s="13"/>
@@ -12620,29 +12776,29 @@
     </row>
     <row r="170" spans="1:24" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="B170" s="78" t="s">
-        <v>362</v>
+        <v>405</v>
+      </c>
+      <c r="B170" s="79" t="s">
+        <v>360</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D170" s="64">
         <v>1.1759259259259259E-2</v>
       </c>
       <c r="F170" s="23" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G170" s="20"/>
       <c r="H170" s="76" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I170" s="46"/>
       <c r="K170" s="13"/>
       <c r="L170" s="13"/>
       <c r="M170" s="40" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="N170" s="13"/>
       <c r="P170" s="13"/>
@@ -12656,19 +12812,19 @@
     </row>
     <row r="171" spans="1:24" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A171" s="13" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B171" s="13"/>
       <c r="C171" s="74" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D171" s="13"/>
       <c r="F171" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G171" s="13"/>
       <c r="H171" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I171" s="64">
         <v>1.6643518518518519E-2</v>
@@ -12692,10 +12848,10 @@
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
       <c r="F172" s="13" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H172" s="13" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="I172" s="13"/>
       <c r="K172" s="13"/>
@@ -12718,10 +12874,10 @@
       <c r="D173" s="13"/>
       <c r="F173" s="13"/>
       <c r="G173" s="13" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H173" s="13" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="I173" s="64">
         <v>2.0011574074074074E-2</v>
@@ -12785,7 +12941,7 @@
     </row>
     <row r="176" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="6"/>
@@ -12807,28 +12963,28 @@
         <v>2</v>
       </c>
       <c r="F177" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="K177" s="79"/>
+        <v>112</v>
+      </c>
+      <c r="K177" s="80"/>
       <c r="P177" s="32" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="178" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A178" s="13" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B178" s="13"/>
-      <c r="C178" s="81" t="s">
-        <v>406</v>
+      <c r="C178" s="82" t="s">
+        <v>410</v>
       </c>
       <c r="D178" s="13"/>
       <c r="F178" s="13" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G178" s="13"/>
-      <c r="H178" s="81" t="s">
-        <v>424</v>
+      <c r="H178" s="82" t="s">
+        <v>428</v>
       </c>
       <c r="I178" s="64">
         <v>9.8032407407407408E-3</v>
@@ -12848,23 +13004,23 @@
     </row>
     <row r="179" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A179" s="13" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B179" s="13"/>
       <c r="C179" s="13" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D179" s="64">
         <v>3.1018518518518522E-3</v>
       </c>
       <c r="F179" s="13" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="H179" s="81" t="s">
-        <v>439</v>
+        <v>444</v>
+      </c>
+      <c r="H179" s="82" t="s">
+        <v>443</v>
       </c>
       <c r="I179" s="13"/>
       <c r="K179" s="13"/>
@@ -12882,11 +13038,11 @@
     </row>
     <row r="180" spans="1:24" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="13" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B180" s="13"/>
       <c r="C180" s="13" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D180" s="64">
         <v>4.0509259259259257E-3</v>
@@ -12910,11 +13066,11 @@
     </row>
     <row r="181" spans="1:24" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="9" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B181" s="10"/>
       <c r="C181" s="10" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D181" s="45">
         <v>5.2893518518518515E-3</v>
@@ -12938,11 +13094,11 @@
     </row>
     <row r="182" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="9" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B182" s="10"/>
       <c r="C182" s="10" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D182" s="45">
         <v>5.6018518518518518E-3</v>
@@ -12966,11 +13122,11 @@
     </row>
     <row r="183" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A183" s="12" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B183" s="13"/>
-      <c r="C183" s="81" t="s">
-        <v>416</v>
+      <c r="C183" s="82" t="s">
+        <v>420</v>
       </c>
       <c r="D183" s="56">
         <v>6.3310185185185197E-3</v>
@@ -12994,11 +13150,11 @@
     </row>
     <row r="184" spans="1:24" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="23" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B184" s="20"/>
-      <c r="C184" s="86" t="s">
-        <v>433</v>
+      <c r="C184" s="87" t="s">
+        <v>437</v>
       </c>
       <c r="D184" s="37">
         <v>1.4178240740740741E-2</v>
@@ -13022,11 +13178,11 @@
     </row>
     <row r="185" spans="1:24" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="23" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B185" s="20"/>
-      <c r="C185" s="86" t="s">
-        <v>425</v>
+      <c r="C185" s="87" t="s">
+        <v>429</v>
       </c>
       <c r="D185" s="37">
         <v>6.5972222222222222E-3</v>
@@ -13050,13 +13206,13 @@
     </row>
     <row r="186" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A186" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C186" s="10" t="s">
         <v>430</v>
-      </c>
-      <c r="B186" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>426</v>
       </c>
       <c r="D186" s="45">
         <v>9.3749999999999997E-3</v>
@@ -13082,7 +13238,7 @@
       <c r="A187" s="23"/>
       <c r="B187" s="20"/>
       <c r="C187" s="20" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D187" s="37">
         <v>1.0300925925925927E-2</v>
@@ -13105,12 +13261,12 @@
       <c r="X187" s="13"/>
     </row>
     <row r="188" spans="1:24" ht="87" x14ac:dyDescent="0.35">
-      <c r="A188" s="82" t="s">
-        <v>421</v>
+      <c r="A188" s="83" t="s">
+        <v>425</v>
       </c>
       <c r="B188" s="10"/>
       <c r="C188" s="10" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D188" s="45">
         <v>1.0462962962962964E-2</v>
@@ -13136,7 +13292,7 @@
       <c r="A189" s="23"/>
       <c r="B189" s="20"/>
       <c r="C189" s="20" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D189" s="21"/>
       <c r="F189" s="13"/>
@@ -13158,15 +13314,15 @@
     </row>
     <row r="190" spans="1:24" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="B190" s="83" t="s">
-        <v>419</v>
+        <v>422</v>
+      </c>
+      <c r="B190" s="84" t="s">
+        <v>423</v>
       </c>
       <c r="C190" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="D190" s="84">
+        <v>424</v>
+      </c>
+      <c r="D190" s="85">
         <v>7.0254629629629634E-3</v>
       </c>
       <c r="F190" s="13"/>
@@ -13188,14 +13344,14 @@
     </row>
     <row r="191" spans="1:24" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="25" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B191" s="26"/>
-      <c r="C191" s="85" t="s">
-        <v>434</v>
-      </c>
-      <c r="D191" s="84" t="s">
-        <v>435</v>
+      <c r="C191" s="86" t="s">
+        <v>438</v>
+      </c>
+      <c r="D191" s="85" t="s">
+        <v>439</v>
       </c>
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
@@ -13216,13 +13372,13 @@
     </row>
     <row r="192" spans="1:24" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="25" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B192" s="26"/>
       <c r="C192" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="D192" s="84">
+        <v>441</v>
+      </c>
+      <c r="D192" s="85">
         <v>1.6192129629629629E-2</v>
       </c>
       <c r="F192" s="13"/>
@@ -13265,76 +13421,69 @@
       <c r="X193" s="13"/>
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A194" s="13"/>
-      <c r="B194" s="13"/>
-      <c r="C194" s="13"/>
-      <c r="D194" s="13"/>
-      <c r="F194" s="13"/>
-      <c r="G194" s="13"/>
-      <c r="H194" s="13"/>
-      <c r="I194" s="13"/>
-      <c r="K194" s="13"/>
-      <c r="L194" s="13"/>
-      <c r="M194" s="13"/>
-      <c r="N194" s="13"/>
-      <c r="P194" s="13"/>
-      <c r="Q194" s="13"/>
-      <c r="R194" s="13"/>
-      <c r="S194" s="13"/>
-      <c r="U194" s="13"/>
-      <c r="V194" s="13"/>
-      <c r="W194" s="13"/>
-      <c r="X194" s="13"/>
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="U194" s="1"/>
+      <c r="V194" s="3"/>
+      <c r="W194" s="3"/>
+      <c r="X194" s="3"/>
     </row>
     <row r="195" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A195" s="13"/>
-      <c r="B195" s="13"/>
-      <c r="C195" s="13"/>
-      <c r="D195" s="13"/>
-      <c r="F195" s="13"/>
-      <c r="G195" s="13"/>
-      <c r="H195" s="13"/>
-      <c r="I195" s="13"/>
-      <c r="K195" s="13"/>
-      <c r="L195" s="13"/>
-      <c r="M195" s="13"/>
-      <c r="N195" s="13"/>
-      <c r="P195" s="13"/>
-      <c r="Q195" s="13"/>
-      <c r="R195" s="13"/>
-      <c r="S195" s="13"/>
-      <c r="U195" s="13"/>
-      <c r="V195" s="13"/>
-      <c r="W195" s="13"/>
-      <c r="X195" s="13"/>
+      <c r="A195" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B195" s="3"/>
+      <c r="C195" s="6"/>
+      <c r="K195" s="3"/>
+      <c r="L195" s="3"/>
+      <c r="M195" s="3"/>
+      <c r="N195" s="3"/>
+      <c r="P195" s="3"/>
+      <c r="Q195" s="3"/>
+      <c r="R195" s="3"/>
+      <c r="S195" s="3"/>
+      <c r="U195" s="3"/>
+      <c r="V195" s="3"/>
+      <c r="W195" s="3"/>
+      <c r="X195" s="3"/>
     </row>
     <row r="196" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A196" s="13"/>
-      <c r="B196" s="13"/>
-      <c r="C196" s="13"/>
-      <c r="D196" s="13"/>
-      <c r="F196" s="13"/>
-      <c r="G196" s="13"/>
-      <c r="H196" s="13"/>
-      <c r="I196" s="13"/>
-      <c r="K196" s="13"/>
-      <c r="L196" s="13"/>
-      <c r="M196" s="13"/>
-      <c r="N196" s="13"/>
-      <c r="P196" s="13"/>
-      <c r="Q196" s="13"/>
-      <c r="R196" s="13"/>
-      <c r="S196" s="13"/>
-      <c r="U196" s="13"/>
-      <c r="V196" s="13"/>
-      <c r="W196" s="13"/>
-      <c r="X196" s="13"/>
-    </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A197" s="13"/>
+      <c r="A196" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F196" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="K196" s="80"/>
+      <c r="P196" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+      <c r="A197" s="13" t="s">
+        <v>448</v>
+      </c>
       <c r="B197" s="13"/>
-      <c r="C197" s="13"/>
-      <c r="D197" s="13"/>
+      <c r="C197" s="91" t="s">
+        <v>449</v>
+      </c>
+      <c r="D197" s="64">
+        <v>5.208333333333333E-3</v>
+      </c>
       <c r="F197" s="13"/>
       <c r="G197" s="13"/>
       <c r="H197" s="13"/>
@@ -13353,7 +13502,9 @@
       <c r="X197" s="13"/>
     </row>
     <row r="198" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A198" s="13"/>
+      <c r="A198" s="3" t="s">
+        <v>452</v>
+      </c>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
@@ -13375,7 +13526,9 @@
       <c r="X198" s="13"/>
     </row>
     <row r="199" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A199" s="13"/>
+      <c r="A199" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
       <c r="D199" s="13"/>
@@ -13396,11 +13549,17 @@
       <c r="W199" s="13"/>
       <c r="X199" s="13"/>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A200" s="13"/>
-      <c r="B200" s="13"/>
-      <c r="C200" s="13"/>
-      <c r="D200" s="13"/>
+    <row r="200" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A200" s="92" t="s">
+        <v>450</v>
+      </c>
+      <c r="B200" s="92"/>
+      <c r="C200" s="93" t="s">
+        <v>451</v>
+      </c>
+      <c r="D200" s="64">
+        <v>2.4351851851851857E-2</v>
+      </c>
       <c r="F200" s="13"/>
       <c r="G200" s="13"/>
       <c r="H200" s="13"/>
@@ -27542,6 +27701,28 @@
       <c r="W842" s="13"/>
       <c r="X842" s="13"/>
     </row>
+    <row r="843" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A843" s="13"/>
+      <c r="B843" s="13"/>
+      <c r="C843" s="13"/>
+      <c r="D843" s="13"/>
+      <c r="F843" s="13"/>
+      <c r="G843" s="13"/>
+      <c r="H843" s="13"/>
+      <c r="I843" s="13"/>
+      <c r="K843" s="13"/>
+      <c r="L843" s="13"/>
+      <c r="M843" s="13"/>
+      <c r="N843" s="13"/>
+      <c r="P843" s="13"/>
+      <c r="Q843" s="13"/>
+      <c r="R843" s="13"/>
+      <c r="S843" s="13"/>
+      <c r="U843" s="13"/>
+      <c r="V843" s="13"/>
+      <c r="W843" s="13"/>
+      <c r="X843" s="13"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{06F6D0DE-FBAB-44D5-8A5A-5DA2C3A06924}"/>
@@ -27555,6 +27736,124 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFC6CD6-4BCA-4C3E-BF7D-CD1E628585EF}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="78">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="78">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="78">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="78">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="78">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="78">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="78">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="78">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="78">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="78">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="78">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="78">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E0DD3E-34D1-42B5-A6CC-CC2C959886C1}">
   <dimension ref="A1"/>
   <sheetViews>
